--- a/medicine/Enfance/Julien_Béziat/Julien_Béziat.xlsx
+++ b/medicine/Enfance/Julien_Béziat/Julien_Béziat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Julien_B%C3%A9ziat</t>
+          <t>Julien_Béziat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julien Béziat, né le 15 mai 1978, est un artiste français, illustrateur, auteur de littérature jeunesse, et enseignant-chercheur en arts plastiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Julien_B%C3%A9ziat</t>
+          <t>Julien_Béziat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julien Béziat est Docteur en arts plastiques de l'Université Bordeaux-Montaigne en 2009[1]. L'objet de sa thèse est remanié et publié en 2014 sous le titre  La Carte à l’œuvre : cartographie, imaginaire, création[2]. Il est ensuite enseignant-chercheur dans la même Université[1],[3],[4]. En septembre 2020, sa faculté inaugure trois nouveaux masters, dont le master Illustration (création et recherche), qu'il supervise[5].
-Il écrit et illustre ses albums jeunesse, et est édité aux éditions Pastel L'École des loisirs dès son premier album, en 2011, Mäko. L'ouvrage obtient la « Pépite du Premier Album »[6] au Salon du livre et de la presse jeunesse. 
-Le Bain de Berk[7] est récompensé par le Prix des libraires du Québec Jeunesse[8],[4], catégorie Hors Québec, en 2018.
-Il continue les aventures de Berk le canard avec La Nuit de Berk[9] en 2016, L'Œil de Berk[10],[11] en 2020, et La Boîte à Berk en 2023.
-En 2018, il explique que son travail créatif naît « Toujours des images, ou plutôt des histoires à travers des images. Je commence aussi très souvent à partir de lieux particuliers. »[4] Quant à ses techniques de travail, il explique : « Dans mes albums, les techniques changent, car elles sont au service de l’atmosphère souhaitée, des sensations à provoquer. Le choix définitif des outils graphiques se fait ainsi assez tard, une fois que le découpage est clairement en place. Certains de mes livres ont ainsi été réalisés à l’encre, à la peinture acrylique et au crayon de couleur, avec des techniques numériques ou mixtes. »[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julien Béziat est Docteur en arts plastiques de l'Université Bordeaux-Montaigne en 2009. L'objet de sa thèse est remanié et publié en 2014 sous le titre  La Carte à l’œuvre : cartographie, imaginaire, création. Il est ensuite enseignant-chercheur dans la même Université. En septembre 2020, sa faculté inaugure trois nouveaux masters, dont le master Illustration (création et recherche), qu'il supervise.
+Il écrit et illustre ses albums jeunesse, et est édité aux éditions Pastel L'École des loisirs dès son premier album, en 2011, Mäko. L'ouvrage obtient la « Pépite du Premier Album » au Salon du livre et de la presse jeunesse. 
+Le Bain de Berk est récompensé par le Prix des libraires du Québec Jeunesse catégorie Hors Québec, en 2018.
+Il continue les aventures de Berk le canard avec La Nuit de Berk en 2016, L'Œil de Berk, en 2020, et La Boîte à Berk en 2023.
+En 2018, il explique que son travail créatif naît « Toujours des images, ou plutôt des histoires à travers des images. Je commence aussi très souvent à partir de lieux particuliers. » Quant à ses techniques de travail, il explique : « Dans mes albums, les techniques changent, car elles sont au service de l’atmosphère souhaitée, des sensations à provoquer. Le choix définitif des outils graphiques se fait ainsi assez tard, une fois que le découpage est clairement en place. Certains de mes livres ont ainsi été réalisés à l’encre, à la peinture acrylique et au crayon de couleur, avec des techniques numériques ou mixtes. »
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Julien_B%C3%A9ziat</t>
+          <t>Julien_Béziat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +560,18 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Albums jeunesse
-Mäko[12], Julien Béziat, Pastel, L'École des loisirs, 2011
-Le mange-doudous[13], Julien Béziat, Pastel, 2013
-Alors, ça roule ?[14], Julien Béziat, Pastel, 2015
+Mäko, Julien Béziat, Pastel, L'École des loisirs, 2011
+Le mange-doudous, Julien Béziat, Pastel, 2013
+Alors, ça roule ?, Julien Béziat, Pastel, 2015
 Série Berk, Julien Béziat, Pastel / L'école des loisirs
-Le Bain de Berk[7], 2016
- La Nuit de Berk[9], 2018
-L'Œil de Berk[10], 2020
+Le Bain de Berk, 2016
+ La Nuit de Berk, 2018
+L'Œil de Berk, 2020
 La Boîte à Berk, 2023
 Autre
  La Carte à l’œuvre : cartographie, imaginaire, création, Julien Béziat ; préface de Gilles A. Tiberghien, Presses universitaires de Bordeaux, 2014</t>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Julien_B%C3%A9ziat</t>
+          <t>Julien_Béziat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,12 +602,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2011 : « Pépite du Premier Album »[6] au Salon du livre et de la presse jeunesse pour Mäko
-2013 : Prix Landerneau Album jeunesse[3], pour Le Mange-doudous
-2015 : Prix Livrentête[15] pour Le Mange-doudous
-2018 :  Prix des libraires du Québec Jeunesse[8],[4], catégorie Hors Québec, pour Le Bain de Berk</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2011 : « Pépite du Premier Album » au Salon du livre et de la presse jeunesse pour Mäko
+2013 : Prix Landerneau Album jeunesse, pour Le Mange-doudous
+2015 : Prix Livrentête pour Le Mange-doudous
+2018 :  Prix des libraires du Québec Jeunesse catégorie Hors Québec, pour Le Bain de Berk</t>
         </is>
       </c>
     </row>
